--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr4_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr4_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="14.24609375" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
+    <col min="4" max="4" width="13.64453125" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="14.64453125" customWidth="true"/>
     <col min="10" max="10" width="15.046875" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28532633517105405</v>
+        <v>0.088036409173085556</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.27108505140894668</v>
+        <v>-0.064355267024168272</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.013090805051358761</v>
+        <v>-0.18167791687103232</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00013489416707253212</v>
+        <v>0.0046802880438447112</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.00017345930116374934</v>
+        <v>0.015760754146887612</v>
       </c>
       <c r="G3" s="0">
-        <v>-2.2113611686973408e-05</v>
+        <v>0.0060884954059826713</v>
       </c>
       <c r="H3" s="0">
-        <v>-6.7819556441972037e-06</v>
+        <v>0.0010772722832833104</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00081499682589972005</v>
+        <v>0.0018012403168121958</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>1.767150718590127e-06</v>
+        <v>-0.00012180952303200709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.34590647597213509</v>
+        <v>0.425779541115134</v>
       </c>
       <c r="C4" s="0">
-        <v>0.074535163668889473</v>
+        <v>0.3140025653091173</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>2.2956501782633288e-07</v>
+        <v>6.408087454680731e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>4.7956552077553208e-05</v>
+        <v>4.4048690426845438e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-6.3640162039926222e-07</v>
+        <v>-0.0037872357117481946</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00024771631995281748</v>
+        <v>0.11838982615936391</v>
       </c>
       <c r="J4" s="0">
-        <v>-9.5938738700150323e-06</v>
+        <v>0.064737403940906671</v>
       </c>
       <c r="K4" s="0">
-        <v>5.8873274116910679e-07</v>
+        <v>-0.0033158811233109931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.34036684070645595</v>
+        <v>0.40916303859785053</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.003440220747338392</v>
+        <v>0.017361969161907902</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0003242490509854931</v>
+        <v>0.0046593132899326369</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0011299374014226212</v>
+        <v>-0.057012266421611293</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00062551120780835053</v>
+        <v>0.00047000345705921196</v>
       </c>
       <c r="H5" s="0">
-        <v>-6.5715137026758481e-06</v>
+        <v>-0.0055542733684885888</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.004167534855644116</v>
+        <v>0.0030606374133832505</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-5.0058092104232621e-06</v>
+        <v>0.020398113950533425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.27090763254813949</v>
+        <v>0.31516894304200377</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.080258740893652591</v>
+        <v>-0.036143237580397503</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-2.3059497023258895e-06</v>
+        <v>0.0001031420474241195</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0015144006298309178</v>
+        <v>-0.0019124897462398304</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.00090210428612204298</v>
+        <v>-0.0071241698614290493</v>
       </c>
       <c r="I6" s="0">
-        <v>0.0083835424250571378</v>
+        <v>-0.049144882708306685</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.7913440283345849e-06</v>
+        <v>0.00022754229310217866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.11240432786130922</v>
+        <v>0.46506809741541366</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.15496185954215197</v>
+        <v>0.20275975782640684</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0018242802953014894</v>
+        <v>-0.011411376748826288</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0018786911213156702</v>
+        <v>-0.0059388109997233571</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00086636388646490017</v>
+        <v>-0.0034570851707850549</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00010970424753965017</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0010724906335134697</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>6.5103772429908613e-05</v>
+        <v>-0.032053330533662272</v>
       </c>
     </row>
     <row r="8">
